--- a/statistics/enhancement_stats.xlsx
+++ b/statistics/enhancement_stats.xlsx
@@ -187,12 +187,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+изменил скорость уменьшения lr: lr=lr*0,996 каждые 100 итераций</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+по отношению к данным exp_4</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>exp name</t>
   </si>
@@ -333,6 +381,12 @@
   </si>
   <si>
     <t>Rel_h decrease</t>
+  </si>
+  <si>
+    <t>9h 2min</t>
+  </si>
+  <si>
+    <t>exp_4+</t>
   </si>
 </sst>
 </file>
@@ -841,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,27 +1437,27 @@
         <v>2.2370046905106598E-2</v>
       </c>
       <c r="W11" s="27">
-        <f>(1-R11/R10)</f>
+        <f t="shared" ref="W11:AA12" si="5">(1-R11/R10)</f>
         <v>0.15312329036060768</v>
       </c>
       <c r="X11" s="29">
-        <f>(1-S11/S10)</f>
+        <f t="shared" si="5"/>
         <v>-0.47244323319119652</v>
       </c>
       <c r="Y11" s="29">
-        <f>(1-T11/T10)</f>
+        <f t="shared" si="5"/>
         <v>5.2678311939488021E-2</v>
       </c>
       <c r="Z11" s="29">
-        <f>(1-U11/U10)</f>
+        <f t="shared" si="5"/>
         <v>-0.58033538356264236</v>
       </c>
       <c r="AA11" s="29">
-        <f>(1-V11/V10)</f>
+        <f t="shared" si="5"/>
         <v>0.17806042703095271</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1429,23 +1483,23 @@
         <v>1.9750785557061799E-2</v>
       </c>
       <c r="W12" s="27">
-        <f>(1-R12/R11)</f>
+        <f t="shared" si="5"/>
         <v>0.94301527426958531</v>
       </c>
       <c r="X12" s="29">
-        <f>(1-S12/S11)</f>
+        <f t="shared" si="5"/>
         <v>0.95409827891688781</v>
       </c>
       <c r="Y12" s="29">
-        <f>(1-T12/T11)</f>
+        <f t="shared" si="5"/>
         <v>0.95468236969747244</v>
       </c>
       <c r="Z12" s="29">
-        <f>(1-U12/U11)</f>
+        <f t="shared" si="5"/>
         <v>0.96481196201505148</v>
       </c>
       <c r="AA12" s="29">
-        <f>(1-V12/V11)</f>
+        <f t="shared" si="5"/>
         <v>0.11708787912495966</v>
       </c>
     </row>
@@ -1456,10 +1510,97 @@
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="Q13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.29938238323287902</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.18089150350665401</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.32894243378461402</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.19688887167758301</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1.21939074633153E-2</v>
+      </c>
+      <c r="W13" s="31">
+        <f>(1-R13/R10)</f>
+        <v>0.74854986112991928</v>
+      </c>
+      <c r="X13" s="32">
+        <f t="shared" ref="X13:AA13" si="6">(1-S13/S10)</f>
+        <v>0.53283573054627686</v>
+      </c>
+      <c r="Y13" s="32">
+        <f t="shared" si="6"/>
+        <v>0.74058111314941055</v>
+      </c>
+      <c r="Z13" s="32">
+        <f t="shared" si="6"/>
+        <v>0.53791712771966971</v>
+      </c>
+      <c r="AA13" s="33">
+        <f t="shared" si="6"/>
+        <v>0.55196092633433413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="1">
+        <v>7.3187116160027793E-2</v>
+      </c>
+      <c r="S14" s="1">
+        <v>3.6655901864034703E-2</v>
+      </c>
+      <c r="T14" s="1">
+        <v>6.8290217020732596E-2</v>
+      </c>
+      <c r="U14" s="1">
+        <v>3.4292267054580897E-2</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1.95523301969973E-2</v>
+      </c>
+      <c r="W14" s="34">
+        <f>(1-R14/R13)</f>
+        <v>0.75553967013784473</v>
+      </c>
+      <c r="X14" s="35">
+        <f t="shared" ref="X14:AA14" si="7">(1-S14/S13)</f>
+        <v>0.79735973689507023</v>
+      </c>
+      <c r="Y14" s="35">
+        <f t="shared" si="7"/>
+        <v>0.7923946259075596</v>
+      </c>
+      <c r="Z14" s="35">
+        <f t="shared" si="7"/>
+        <v>0.82582932817687893</v>
+      </c>
+      <c r="AA14" s="36">
+        <f t="shared" si="7"/>
+        <v>-0.60345076062118808</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="W5:AA5 W13:AA13" formula="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/statistics/enhancement_stats.xlsx
+++ b/statistics/enhancement_stats.xlsx
@@ -75,7 +75,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -84,7 +84,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 изменил скорость уменьшения lr: lr=lr*0,996 каждые 100 итераций</t>
@@ -195,7 +195,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -204,7 +204,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 изменил скорость уменьшения lr: lr=lr*0,996 каждые 100 итераций</t>
@@ -219,7 +219,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -228,10 +228,107 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 по отношению к данным exp_4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+проводился уже со значением alpha=0,3
+alpha_0=0,35</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+при alpha!=alpha_0 этот столбец не показателен</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+при alpha!=alpha_0 этот столбец не показателен</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+по отношению к данным exp_5</t>
         </r>
       </text>
     </comment>
@@ -240,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>exp name</t>
   </si>
@@ -387,6 +484,21 @@
   </si>
   <si>
     <t>exp_4+</t>
+  </si>
+  <si>
+    <t>big_exp3</t>
+  </si>
+  <si>
+    <t>39h 41m</t>
+  </si>
+  <si>
+    <t>9h 5min</t>
+  </si>
+  <si>
+    <t>exp_5</t>
+  </si>
+  <si>
+    <t>exp_5+</t>
   </si>
 </sst>
 </file>
@@ -461,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -549,11 +661,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -591,6 +725,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1374,7 @@
       <c r="V5" s="1">
         <v>1.26235119111342E-2</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="39">
         <f>(1-R5/R2)</f>
         <v>0.77671962606919842</v>
       </c>
@@ -1282,7 +1420,7 @@
       <c r="V6" s="1">
         <v>1.9417840603810198E-2</v>
       </c>
-      <c r="W6" s="34">
+      <c r="W6" s="40">
         <f>(1-R6/R5)</f>
         <v>0.4955998771102762</v>
       </c>
@@ -1528,7 +1666,7 @@
       <c r="V13" s="1">
         <v>1.21939074633153E-2</v>
       </c>
-      <c r="W13" s="31">
+      <c r="W13" s="39">
         <f>(1-R13/R10)</f>
         <v>0.74854986112991928</v>
       </c>
@@ -1574,7 +1712,7 @@
       <c r="V14" s="1">
         <v>1.95523301969973E-2</v>
       </c>
-      <c r="W14" s="34">
+      <c r="W14" s="40">
         <f>(1-R14/R13)</f>
         <v>0.75553967013784473</v>
       </c>
@@ -1593,6 +1731,194 @@
       <c r="AA14" s="36">
         <f t="shared" si="7"/>
         <v>-0.60345076062118808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-70</v>
+      </c>
+      <c r="D18" s="4">
+        <v>230</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>100</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H18" s="4">
+        <v>500</v>
+      </c>
+      <c r="I18" s="4">
+        <v>60</v>
+      </c>
+      <c r="J18" s="4">
+        <v>100</v>
+      </c>
+      <c r="K18" s="5">
+        <v>2</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="13">
+        <v>70000000</v>
+      </c>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1.4751301591900301</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.44550884290042297</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1.2356885129517401</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0.239264833123498</v>
+      </c>
+      <c r="V18" s="1">
+        <v>4.65235991017292E-2</v>
+      </c>
+      <c r="W18" s="27">
+        <f>(1-R18/R18)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="29">
+        <f t="shared" ref="X18:Z18" si="8">(1-S18/S18)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="4">
+        <v>5</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="7">
+        <f>5*200000</f>
+        <v>1000000</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.21191304832628</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0.12737364824369399</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.26280263563314599</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.15077025307353201</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1.7346339358794899E-2</v>
+      </c>
+      <c r="W19" s="31">
+        <f>(1-R19/R18)</f>
+        <v>0.85634281354356012</v>
+      </c>
+      <c r="X19" s="32">
+        <f t="shared" ref="X19:Z20" si="9">(1-S19/S18)</f>
+        <v>0.71409400672173939</v>
+      </c>
+      <c r="Y19" s="32">
+        <f t="shared" si="9"/>
+        <v>0.78732291117170095</v>
+      </c>
+      <c r="Z19" s="33">
+        <f t="shared" si="9"/>
+        <v>0.36986037143322681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.12770933295136</v>
+      </c>
+      <c r="S20" s="1">
+        <v>6.1821939977727197E-2</v>
+      </c>
+      <c r="T20" s="1">
+        <v>9.1334379135668595E-2</v>
+      </c>
+      <c r="U20" s="1">
+        <v>5.0773706441335498E-2</v>
+      </c>
+      <c r="V20" s="1">
+        <v>2.53721501092131E-2</v>
+      </c>
+      <c r="W20" s="34">
+        <f>(1-R20/R19)</f>
+        <v>0.39735030966697504</v>
+      </c>
+      <c r="X20" s="35">
+        <f t="shared" si="9"/>
+        <v>0.51464105150346218</v>
+      </c>
+      <c r="Y20" s="35">
+        <f t="shared" si="9"/>
+        <v>0.65246018588959287</v>
+      </c>
+      <c r="Z20" s="36">
+        <f t="shared" si="9"/>
+        <v>0.66323790398778004</v>
       </c>
     </row>
   </sheetData>
